--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll planreduce.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll planreduce.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D59C444-5F79-4241-AD19-AC82E8691A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2B2C3-1248-44CC-9636-8E429FE26DAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>รหัสบริษัท</t>
   </si>
   <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
   </si>
   <si>
@@ -63,6 +60,15 @@
   </si>
   <si>
     <t>รหัส Plan Reduce ความยาวไม่เกิน 10 ตัว</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -166,6 +172,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -451,7 +463,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,19 +473,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -483,69 +495,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18CEA8C-72E7-4A9B-BACE-C25E2C23A9D4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="19.1796875" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>